--- a/biology/Zoologie/Dicruridae/Dicruridae.xlsx
+++ b/biology/Zoologie/Dicruridae/Dicruridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Dicruridae, ou Dicruridés, est une famille de passereaux actuellement constituée du seul genre Dicrurus et de 25 espèces. Elle rassemble des drongos, oiseaux généralement noirs, gris ou arborant des teintes métalliques, insectivores, dont l'aire de répartition s'étend de la zone afrotropicale à la zone indomalaise avec de nombreuses espèces endémiques à différentes îles de l'Océan Indien.
 </t>
@@ -511,11 +523,48 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Chaetorhynchus était auparavant placé dans cette famille, jusqu'à ce que plusieurs études phylogéniques (Irestedt et al. (2008), Jønsson et al. (2011), Norman et al. (2009), Nyári et al. (2009) et Schodde &amp; Christidis (2014)) démontrent que Chaetorhynchus papuensis (alors nommé Drongo papou) est en réalité un parent éloigné de Lamprolia victoriae, et qu'ensemble ils forment une sous-famille dans le clade des Rhipiduridae. En conséquence, le Congrès ornithologique international (classification 4.3, 2014) déplace cette espèce de cette famille à celle des Rhipiduridae. La famille devient alors monotypique.
-Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chaetorhynchus était auparavant placé dans cette famille, jusqu'à ce que plusieurs études phylogéniques (Irestedt et al. (2008), Jønsson et al. (2011), Norman et al. (2009), Nyári et al. (2009) et Schodde &amp; Christidis (2014)) démontrent que Chaetorhynchus papuensis (alors nommé Drongo papou) est en réalité un parent éloigné de Lamprolia victoriae, et qu'ensemble ils forment une sous-famille dans le clade des Rhipiduridae. En conséquence, le Congrès ornithologique international (classification 4.3, 2014) déplace cette espèce de cette famille à celle des Rhipiduridae. La famille devient alors monotypique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dicruridae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dicruridae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Position systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 genre Dicrurus
 Dicrurus ludwigii – Drongo de Ludwig
 Dicrurus atripennis – Drongo de forêt
@@ -541,9 +590,43 @@
 Dicrurus megarhynchus – Drongo de Nouvelle-Irlande
 Dicrurus andamanensis – Drongo des Andaman
 Dicrurus paradiseus – Drongo à raquettes
-Dicrurus lophorinus – Drongo drongup
-Ancien genre
-Chaetorhynchus A.B. Meyer, 1874</t>
+Dicrurus lophorinus – Drongo drongup</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dicruridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dicruridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Position systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ancien genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chaetorhynchus A.B. Meyer, 1874</t>
         </is>
       </c>
     </row>
